--- a/Test Data/Gallery_AttachedFunctionality_PFI_Node_Pro_Lite_Panels.xlsx
+++ b/Test Data/Gallery_AttachedFunctionality_PFI_Node_Pro_Lite_Panels.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0BE5397-50DB-4754-8375-9D70C9076E13}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9E42C5D-EC4D-4F25-B8F1-73BCADA7A91A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
   </bookViews>
